--- a/data/Samples 2016.xlsx
+++ b/data/Samples 2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Granda\Documents\Box Sync\SharedPRR\Soil baiting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\masters_projects\phytophthora\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC05D83-FE1F-4121-9FCE-A16508FAEDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Isolates!$A$2:$J$89</definedName>
   </definedNames>
-  <calcPr calcId="171026" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="309">
   <si>
     <t>sample_id</t>
   </si>
@@ -969,7 +980,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1011,6 +1022,10 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3101,25 +3116,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.59765625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" style="1" customWidth="1"/>
     <col min="9" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="50.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="50.59765625" style="1" customWidth="1"/>
     <col min="13" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3173,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3189,7 +3204,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3220,7 +3235,7 @@
       <c r="L3" s="93"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3251,7 +3266,7 @@
       <c r="L4" s="93"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3282,7 +3297,7 @@
       <c r="L5" s="93"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3328,7 @@
       <c r="L6" s="93"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3346,7 +3361,7 @@
       </c>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3379,7 +3394,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3408,7 +3423,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -3439,7 +3454,7 @@
       <c r="L10" s="93"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3470,15 +3485,15 @@
       <c r="L11" s="93"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
+      <c r="B12" s="8">
+        <v>41.221359999999997</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-88.396780000000007</v>
       </c>
       <c r="D12" s="93"/>
       <c r="E12" s="2" t="s">
@@ -3499,15 +3514,15 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
+      <c r="B13" s="8">
+        <v>41.285690000000002</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-88.560789999999997</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="2" t="s">
@@ -3528,15 +3543,15 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
+      <c r="B14" s="8">
+        <v>41.28819</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-88.416510000000002</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="2" t="s">
@@ -3557,15 +3572,15 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
+      <c r="B15" s="8">
+        <v>42.69923</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-88.371219999999994</v>
       </c>
       <c r="D15" s="93"/>
       <c r="E15" s="2" t="s">
@@ -3577,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
@@ -3586,15 +3601,15 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
+      <c r="B16" s="8">
+        <v>42.109430000000003</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-88.539159999999995</v>
       </c>
       <c r="D16" s="93"/>
       <c r="E16" s="2" t="s">
@@ -3615,15 +3630,15 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
+      <c r="B17" s="8">
+        <v>41.198149999999998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-88.229609999999994</v>
       </c>
       <c r="D17" s="93"/>
       <c r="E17" s="2" t="s">
@@ -3644,15 +3659,15 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
+      <c r="B18" s="8">
+        <v>41.107030000000002</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-88.248959999999997</v>
       </c>
       <c r="D18" s="93"/>
       <c r="E18" s="2" t="s">
@@ -3673,15 +3688,15 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
+      <c r="B19" s="8">
+        <v>41.171639999999996</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-88.130790000000005</v>
       </c>
       <c r="D19" s="93"/>
       <c r="E19" s="2" t="s">
@@ -3702,15 +3717,15 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
+      <c r="B20" s="8">
+        <v>41.01379</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-88.171909999999997</v>
       </c>
       <c r="D20" s="93"/>
       <c r="E20" s="2" t="s">
@@ -3731,15 +3746,15 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
+      <c r="B21" s="8">
+        <v>41.028550000000003</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-88.126289999999997</v>
       </c>
       <c r="D21" s="93"/>
       <c r="E21" s="2" t="s">
@@ -3760,15 +3775,15 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
+      <c r="B22" s="8">
+        <v>41.099449999999997</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-88.099450000000004</v>
       </c>
       <c r="D22" s="93"/>
       <c r="E22" s="2" t="s">
@@ -3789,15 +3804,15 @@
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>82</v>
+      <c r="B23" s="8">
+        <v>41.147919999999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-88.102310000000003</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="2" t="s">
@@ -3818,15 +3833,15 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
+      <c r="B24" s="8">
+        <v>41.572699999999998</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-88.497389999999996</v>
       </c>
       <c r="D24" s="93"/>
       <c r="E24" s="2" t="s">
@@ -3847,15 +3862,15 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
+      <c r="B25" s="8">
+        <v>41.491750000000003</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-88.498040000000003</v>
       </c>
       <c r="D25" s="93"/>
       <c r="E25" s="2" t="s">
@@ -3878,15 +3893,15 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
+      <c r="B26" s="8">
+        <v>41.185290000000002</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-88.593239999999994</v>
       </c>
       <c r="D26" s="93"/>
       <c r="E26" s="2" t="s">
@@ -3907,15 +3922,15 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
+      <c r="B27" s="8">
+        <v>41.098640000000003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-88.559280000000001</v>
       </c>
       <c r="D27" s="93"/>
       <c r="E27" s="2" t="s">
@@ -3936,15 +3951,15 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>101</v>
+      <c r="B28" s="8">
+        <v>42.170490000000001</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-88.383170000000007</v>
       </c>
       <c r="D28" s="93"/>
       <c r="E28" s="2" t="s">
@@ -3967,15 +3982,15 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
+      <c r="B29" s="8">
+        <v>41.299300000000002</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-88.155060000000006</v>
       </c>
       <c r="D29" s="93"/>
       <c r="E29" s="2" t="s">
@@ -3997,6 +4012,7 @@
       <c r="M29" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4013,24 +4029,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" style="10" customWidth="1"/>
     <col min="2" max="6" width="11" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="10" customWidth="1"/>
     <col min="10" max="12" width="11" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="11.125" style="10" customWidth="1"/>
+    <col min="13" max="17" width="11.09765625" style="10" customWidth="1"/>
     <col min="18" max="19" width="16.5" style="10" customWidth="1"/>
     <col min="20" max="256" width="11" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" customHeight="1">
+    <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4043,7 +4059,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14">
         <f ca="1">TODAY()</f>
-        <v>42999</v>
+        <v>43945</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="11"/>
@@ -4060,7 +4076,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -4099,7 +4115,7 @@
       </c>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" ht="29.1" customHeight="1">
+    <row r="3" spans="1:21" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
@@ -4164,7 +4180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
@@ -4220,7 +4236,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -4276,7 +4292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -4332,7 +4348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
@@ -4388,7 +4404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
@@ -4437,7 +4453,7 @@
         <v>Out</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>21</v>
       </c>
@@ -4494,7 +4510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>25</v>
       </c>
@@ -4551,7 +4567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>28</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>Out</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
@@ -4643,7 +4659,7 @@
         <v>Out</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>Out</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
@@ -4742,7 +4758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>125</v>
       </c>
@@ -4803,7 +4819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>126</v>
       </c>
@@ -4854,7 +4870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>127</v>
       </c>
@@ -4905,7 +4921,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>128</v>
       </c>
@@ -4966,7 +4982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>129</v>
       </c>
@@ -5017,7 +5033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>130</v>
       </c>
@@ -5068,7 +5084,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>131</v>
       </c>
@@ -5119,7 +5135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>132</v>
       </c>
@@ -5180,7 +5196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>133</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>134</v>
       </c>
@@ -5292,7 +5308,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>135</v>
       </c>
@@ -5343,7 +5359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>136</v>
       </c>
@@ -5394,7 +5410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>137</v>
       </c>
@@ -5455,7 +5471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>138</v>
       </c>
@@ -5506,7 +5522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>139</v>
       </c>
@@ -5557,7 +5573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>140</v>
       </c>
@@ -5618,7 +5634,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>141</v>
       </c>
@@ -5669,7 +5685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>142</v>
       </c>
@@ -5720,7 +5736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>143</v>
       </c>
@@ -5781,7 +5797,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>144</v>
       </c>
@@ -5832,7 +5848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>145</v>
       </c>
@@ -5883,7 +5899,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>146</v>
       </c>
@@ -5944,7 +5960,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>147</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>148</v>
       </c>
@@ -6046,7 +6062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>149</v>
       </c>
@@ -6107,7 +6123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>150</v>
       </c>
@@ -6158,7 +6174,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>151</v>
       </c>
@@ -6209,7 +6225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>152</v>
       </c>
@@ -6272,7 +6288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>153</v>
       </c>
@@ -6323,7 +6339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>154</v>
       </c>
@@ -6374,7 +6390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>155</v>
       </c>
@@ -6437,7 +6453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>156</v>
       </c>
@@ -6488,7 +6504,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>157</v>
       </c>
@@ -6539,7 +6555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>158</v>
       </c>
@@ -6600,7 +6616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>159</v>
       </c>
@@ -6886,7 +6902,7 @@
       <c r="IU49" s="51"/>
       <c r="IV49" s="51"/>
     </row>
-    <row r="50" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>160</v>
       </c>
@@ -7172,7 +7188,7 @@
       <c r="IU50" s="51"/>
       <c r="IV50" s="51"/>
     </row>
-    <row r="51" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>161</v>
       </c>
@@ -7468,7 +7484,7 @@
       <c r="IU51" s="51"/>
       <c r="IV51" s="51"/>
     </row>
-    <row r="52" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>162</v>
       </c>
@@ -7754,7 +7770,7 @@
       <c r="IU52" s="51"/>
       <c r="IV52" s="51"/>
     </row>
-    <row r="53" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>163</v>
       </c>
@@ -8040,7 +8056,7 @@
       <c r="IU53" s="51"/>
       <c r="IV53" s="51"/>
     </row>
-    <row r="54" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
         <v>164</v>
       </c>
@@ -8336,7 +8352,7 @@
       <c r="IU54" s="51"/>
       <c r="IV54" s="51"/>
     </row>
-    <row r="55" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
         <v>165</v>
       </c>
@@ -8622,7 +8638,7 @@
       <c r="IU55" s="51"/>
       <c r="IV55" s="51"/>
     </row>
-    <row r="56" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44" t="s">
         <v>166</v>
       </c>
@@ -8908,7 +8924,7 @@
       <c r="IU56" s="51"/>
       <c r="IV56" s="51"/>
     </row>
-    <row r="57" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44" t="s">
         <v>167</v>
       </c>
@@ -9204,7 +9220,7 @@
       <c r="IU57" s="51"/>
       <c r="IV57" s="51"/>
     </row>
-    <row r="58" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
         <v>168</v>
       </c>
@@ -9490,7 +9506,7 @@
       <c r="IU58" s="51"/>
       <c r="IV58" s="51"/>
     </row>
-    <row r="59" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
         <v>169</v>
       </c>
@@ -9776,7 +9792,7 @@
       <c r="IU59" s="51"/>
       <c r="IV59" s="51"/>
     </row>
-    <row r="60" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
         <v>170</v>
       </c>
@@ -10072,7 +10088,7 @@
       <c r="IU60" s="51"/>
       <c r="IV60" s="51"/>
     </row>
-    <row r="61" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
         <v>171</v>
       </c>
@@ -10358,7 +10374,7 @@
       <c r="IU61" s="51"/>
       <c r="IV61" s="51"/>
     </row>
-    <row r="62" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>172</v>
       </c>
@@ -10644,7 +10660,7 @@
       <c r="IU62" s="51"/>
       <c r="IV62" s="51"/>
     </row>
-    <row r="63" spans="1:256" s="77" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:256" s="77" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78"/>
       <c r="B63" s="78"/>
       <c r="C63" s="78"/>
@@ -10902,7 +10918,7 @@
       <c r="IU63" s="76"/>
       <c r="IV63" s="76"/>
     </row>
-    <row r="64" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="83" t="s">
         <v>173</v>
       </c>
@@ -11198,7 +11214,7 @@
       <c r="IU64" s="51"/>
       <c r="IV64" s="51"/>
     </row>
-    <row r="65" spans="1:21" ht="15.95" customHeight="1">
+    <row r="65" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="83" t="s">
         <v>175</v>
       </c>
@@ -11249,7 +11265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.95" customHeight="1">
+    <row r="66" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="83" t="s">
         <v>176</v>
       </c>
@@ -11314,29 +11330,29 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:IT95"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="51" customWidth="1"/>
     <col min="4" max="4" width="23" style="51" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="51" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="51" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="51"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="51" customWidth="1"/>
-    <col min="12" max="254" width="8.875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="51" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="51" customWidth="1"/>
+    <col min="8" max="9" width="8.8984375" style="51"/>
+    <col min="10" max="10" width="35.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="51" customWidth="1"/>
+    <col min="12" max="254" width="8.8984375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:254" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -11345,7 +11361,7 @@
       <c r="F1" s="70"/>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:254" s="69" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:254" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>110</v>
       </c>
@@ -11621,7 +11637,7 @@
       <c r="IS2" s="68"/>
       <c r="IT2" s="68"/>
     </row>
-    <row r="3" spans="1:254" ht="15.75" customHeight="1">
+    <row r="3" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
         <v>12</v>
       </c>
@@ -11647,7 +11663,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:254" ht="15.75" customHeight="1">
+    <row r="4" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="107"/>
       <c r="B4" s="105"/>
       <c r="C4" s="2" t="s">
@@ -11669,7 +11685,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
         <v>17</v>
       </c>
@@ -11689,7 +11705,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
         <v>18</v>
       </c>
@@ -11709,7 +11725,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92" t="s">
         <v>19</v>
       </c>
@@ -11729,7 +11745,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="92" t="s">
         <v>20</v>
       </c>
@@ -11749,7 +11765,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="92" t="s">
         <v>21</v>
       </c>
@@ -11769,7 +11785,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:254" ht="15.75" customHeight="1">
+    <row r="10" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109" t="s">
         <v>25</v>
       </c>
@@ -11795,7 +11811,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="105"/>
       <c r="C11" s="2" t="s">
@@ -11815,7 +11831,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:254" ht="15.75" customHeight="1">
+    <row r="12" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="92" t="s">
         <v>194</v>
       </c>
@@ -11839,7 +11855,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="106" t="s">
         <v>197</v>
       </c>
@@ -11861,7 +11877,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:254" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108"/>
       <c r="B14" s="113"/>
       <c r="C14" s="2" t="s">
@@ -11879,7 +11895,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:254" ht="15.75" customHeight="1">
+    <row r="15" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="106" t="s">
         <v>33</v>
       </c>
@@ -11903,7 +11919,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:254" ht="15.75" customHeight="1">
+    <row r="16" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107"/>
       <c r="B16" s="105"/>
       <c r="C16" s="2" t="s">
@@ -11923,7 +11939,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="92" t="s">
         <v>38</v>
       </c>
@@ -11945,10 +11961,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="19" spans="1:11" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="20" spans="1:11" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="18" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="109" t="s">
         <v>52</v>
       </c>
@@ -11972,7 +11988,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="105"/>
       <c r="C22" s="2" t="s">
@@ -11994,7 +12010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="94" t="s">
         <v>125</v>
       </c>
@@ -12012,7 +12028,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="94" t="s">
         <v>126</v>
       </c>
@@ -12032,7 +12048,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="94" t="s">
         <v>127</v>
       </c>
@@ -12054,7 +12070,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="94" t="s">
         <v>128</v>
       </c>
@@ -12074,7 +12090,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="94" t="s">
         <v>129</v>
       </c>
@@ -12094,7 +12110,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="94" t="s">
         <v>130</v>
       </c>
@@ -12120,7 +12136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="s">
         <v>131</v>
       </c>
@@ -12142,7 +12158,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="s">
         <v>132</v>
       </c>
@@ -12169,7 +12185,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="111" t="s">
         <v>133</v>
       </c>
@@ -12191,7 +12207,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="108"/>
       <c r="B32" s="108"/>
       <c r="C32" s="2" t="s">
@@ -12211,7 +12227,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="94" t="s">
         <v>134</v>
       </c>
@@ -12233,7 +12249,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="97" t="s">
         <v>135</v>
       </c>
@@ -12255,7 +12271,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="98"/>
       <c r="B35" s="96"/>
       <c r="C35" s="59" t="s">
@@ -12273,7 +12289,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="s">
         <v>136</v>
       </c>
@@ -12299,7 +12315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97" t="s">
         <v>137</v>
       </c>
@@ -12321,7 +12337,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="98"/>
       <c r="B38" s="96"/>
       <c r="C38" s="60" t="s">
@@ -12339,7 +12355,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="97" t="s">
         <v>138</v>
       </c>
@@ -12363,7 +12379,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="98"/>
       <c r="B40" s="96"/>
       <c r="C40" s="59" t="s">
@@ -12381,7 +12397,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="94" t="s">
         <v>139</v>
       </c>
@@ -12405,7 +12421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>140</v>
       </c>
@@ -12425,7 +12441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>141</v>
       </c>
@@ -12451,7 +12467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>142</v>
       </c>
@@ -12467,7 +12483,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>143</v>
       </c>
@@ -12493,7 +12509,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>144</v>
       </c>
@@ -12519,7 +12535,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>145</v>
       </c>
@@ -12541,7 +12557,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>146</v>
       </c>
@@ -12565,7 +12581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>146</v>
       </c>
@@ -12591,7 +12607,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>147</v>
       </c>
@@ -12615,7 +12631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>148</v>
       </c>
@@ -12639,7 +12655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="52" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
         <v>149</v>
       </c>
@@ -12659,7 +12675,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="53" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
         <v>149</v>
       </c>
@@ -12680,7 +12696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="54" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>149</v>
       </c>
@@ -12702,7 +12718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.95" customHeight="1">
+    <row r="55" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>150</v>
       </c>
@@ -12724,7 +12740,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="56" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>150</v>
       </c>
@@ -12750,7 +12766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="57" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
         <v>151</v>
       </c>
@@ -12774,7 +12790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="58" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="104"/>
       <c r="B58" s="102"/>
       <c r="C58" s="75" t="s">
@@ -12796,7 +12812,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="59" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12832,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="60" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="99" t="s">
         <v>153</v>
       </c>
@@ -12840,7 +12856,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="61" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="100"/>
       <c r="B61" s="102"/>
       <c r="C61" s="65" t="s">
@@ -12858,7 +12874,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="62" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>154</v>
       </c>
@@ -12884,7 +12900,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="63" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="92" t="s">
         <v>155</v>
       </c>
@@ -12904,7 +12920,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="64" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="92"/>
       <c r="B64" s="58"/>
       <c r="C64" s="92" t="s">
@@ -12918,7 +12934,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="65" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="92" t="s">
         <v>156</v>
       </c>
@@ -12933,7 +12949,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="66" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="92" t="s">
         <v>157</v>
       </c>
@@ -12949,7 +12965,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="67" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>158</v>
       </c>
@@ -12965,7 +12981,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="68" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>159</v>
       </c>
@@ -12981,7 +12997,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="69" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
         <v>160</v>
       </c>
@@ -13001,7 +13017,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="70" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="44"/>
       <c r="B70" s="5"/>
       <c r="C70" s="65" t="s">
@@ -13017,7 +13033,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="71" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
         <v>161</v>
       </c>
@@ -13033,7 +13049,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="72" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
         <v>162</v>
       </c>
@@ -13049,7 +13065,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" ht="15.95" customHeight="1">
+    <row r="73" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
         <v>163</v>
       </c>
@@ -13073,7 +13089,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.95" customHeight="1">
+    <row r="74" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="44"/>
       <c r="B74" s="5"/>
       <c r="C74" s="65" t="s">
@@ -13093,7 +13109,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="75" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
         <v>164</v>
       </c>
@@ -13115,7 +13131,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="76" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
         <v>165</v>
       </c>
@@ -13137,7 +13153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="77" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>165</v>
       </c>
@@ -13159,7 +13175,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="78" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
         <v>165</v>
       </c>
@@ -13181,7 +13197,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="79" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>165</v>
       </c>
@@ -13203,7 +13219,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.95" hidden="1" customHeight="1">
+    <row r="80" spans="1:10" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
         <v>166</v>
       </c>
@@ -13219,7 +13235,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="81" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="44" t="s">
         <v>167</v>
       </c>
@@ -13235,7 +13251,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="82" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>168</v>
       </c>
@@ -13255,7 +13271,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="83" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="44" t="s">
         <v>169</v>
       </c>
@@ -13275,7 +13291,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="84" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="44" t="s">
         <v>170</v>
       </c>
@@ -13297,7 +13313,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="85" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="44"/>
       <c r="B85" s="5"/>
       <c r="C85" s="65" t="s">
@@ -13315,7 +13331,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="86" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="44" t="s">
         <v>171</v>
       </c>
@@ -13335,7 +13351,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="87" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="44"/>
       <c r="B87" s="5"/>
       <c r="C87" s="65" t="s">
@@ -13353,7 +13369,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.95" hidden="1" customHeight="1">
+    <row r="88" spans="1:11" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="44"/>
       <c r="B88" s="5"/>
       <c r="C88" s="65" t="s">
@@ -13371,7 +13387,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.95" customHeight="1">
+    <row r="89" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
         <v>172</v>
       </c>
@@ -13398,7 +13414,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.95" customHeight="1">
+    <row r="90" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
@@ -13423,7 +13439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.95" customHeight="1">
+    <row r="91" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="83" t="s">
         <v>173</v>
       </c>
@@ -13440,7 +13456,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.95" customHeight="1">
+    <row r="92" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="83" t="s">
         <v>175</v>
       </c>
@@ -13451,7 +13467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.95" customHeight="1">
+    <row r="93" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="83" t="s">
         <v>176</v>
       </c>
@@ -13468,7 +13484,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.95" customHeight="1">
+    <row r="94" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="89" t="s">
         <v>308</v>
       </c>
@@ -13482,7 +13498,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.95" customHeight="1">
+    <row r="95" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="76"/>
     </row>
   </sheetData>
